--- a/ExplorerFund/NetValue/锁仓基金.xlsx
+++ b/ExplorerFund/NetValue/锁仓基金.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="9405"/>
+    <workbookView windowWidth="20400" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>时间</t>
   </si>
@@ -24,10 +24,13 @@
     <t xml:space="preserve">  帐号</t>
   </si>
   <si>
-    <t xml:space="preserve"> 总权益(￥元)</t>
-  </si>
-  <si>
-    <t>月毛收益(元)</t>
+    <t xml:space="preserve"> 月初总权益(￥元)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 结算时总权益(￥元)</t>
+  </si>
+  <si>
+    <t>月毛收益</t>
   </si>
   <si>
     <t>月净收益</t>
@@ -36,15 +39,18 @@
     <t>应支付分红</t>
   </si>
   <si>
+    <t>分红后总权益</t>
+  </si>
+  <si>
+    <t>总股份数</t>
+  </si>
+  <si>
+    <t>分红后净值</t>
+  </si>
+  <si>
     <t>分红后总收益</t>
   </si>
   <si>
-    <t>总股份数</t>
-  </si>
-  <si>
-    <t>分红后净值</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -82,6 +88,24 @@
   </si>
   <si>
     <t>栾峰</t>
+  </si>
+  <si>
+    <t>帐号</t>
+  </si>
+  <si>
+    <t>锁仓分红（30%）</t>
+  </si>
+  <si>
+    <t>CJ （2%）</t>
+  </si>
+  <si>
+    <t>NF（8.4%）</t>
+  </si>
+  <si>
+    <t>BDY（11.2）</t>
+  </si>
+  <si>
+    <t>WY（8.4%）</t>
   </si>
 </sst>
 </file>
@@ -89,8 +113,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -118,6 +142,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -141,105 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -264,6 +288,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,91 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,6 +450,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,61 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,30 +479,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,6 +493,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +556,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -563,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,144 +599,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -771,6 +804,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1026,32 +1064,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9.375"/>
-    <col min="3" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="12.875" customWidth="1"/>
-    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,72 +1103,110 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>20170315</v>
       </c>
       <c r="B2">
         <v>910137</v>
       </c>
-      <c r="C2" s="1">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3">
         <v>3100000</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="1">
-        <v>3100000</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="J2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>20170428</v>
       </c>
       <c r="B3">
         <v>910137</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="D3" s="3">
         <v>3192162</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="3">
         <v>92162</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="5">
         <v>64513</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="5">
         <v>27649</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="5">
         <v>3164513</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="3">
         <v>3100000</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="4">
         <v>1.0208</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>20170630</v>
+      </c>
+      <c r="B4">
+        <v>910037</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3164513</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3309998</v>
+      </c>
+      <c r="E4">
+        <f>D4-C4</f>
+        <v>145485</v>
+      </c>
+      <c r="F4" s="6">
+        <v>101839</v>
+      </c>
+      <c r="G4" s="2">
+        <f>E4-F4</f>
+        <v>43646</v>
+      </c>
+      <c r="H4" s="2">
+        <f>C4+F4</f>
+        <v>3266352</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1142,46 +1219,159 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>20170428</v>
       </c>
       <c r="B11">
         <v>910100</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="3">
         <v>5000000</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1">
+      <c r="E11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3">
         <v>5000000</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="5">
         <v>1</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="21" spans="6:8">
-      <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>20170630</v>
+      </c>
+      <c r="B12">
+        <v>910100</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5076991</v>
+      </c>
+      <c r="E12">
+        <v>76991</v>
+      </c>
+      <c r="F12">
+        <v>76991</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>76991</v>
+      </c>
+      <c r="J12">
+        <v>1.01539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>20170428</v>
+      </c>
+      <c r="B16">
+        <v>918031</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5150000</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="3">
+        <v>5000000</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>20170630</v>
+      </c>
+      <c r="B17">
+        <v>918031</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5150000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>5167948</v>
+      </c>
+      <c r="E17" s="3">
+        <v>17948</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17948</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>17948</v>
+      </c>
+      <c r="J17">
+        <v>1.0035</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1194,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1213,53 +1403,35 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20170415</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>910100</v>
-      </c>
-      <c r="D2">
-        <v>268448</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3800000</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3800000</v>
-      </c>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="5:7">
+      <c r="E2" s="3"/>
+      <c r="F2"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
         <v>20170427</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>910100</v>
@@ -1267,31 +1439,31 @@
       <c r="D3">
         <v>268448</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>5000000</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>5000000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1299,69 +1471,69 @@
         <v>20170415</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3">
         <v>300000</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>300000</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
         <v>20170415</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3">
         <v>3000000</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="3">
         <v>3000000</v>
       </c>
     </row>
     <row r="18" spans="3:5">
-      <c r="C18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <v>20170415</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3">
         <v>500000</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>500000</v>
       </c>
     </row>
@@ -1370,15 +1542,15 @@
         <v>20170424</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
         <v>300000</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="3">
         <v>300000</v>
       </c>
     </row>
@@ -1387,40 +1559,40 @@
         <v>20170427</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3">
         <v>200000</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="3">
         <v>200000</v>
       </c>
     </row>
     <row r="24" spans="3:5">
-      <c r="C24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="3:5">
-      <c r="C25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <v>20170419</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3">
         <v>700000</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
         <v>700000</v>
       </c>
     </row>
@@ -1433,14 +1605,89 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B2">
+        <v>910137</v>
+      </c>
+      <c r="C2">
+        <v>27649</v>
+      </c>
+      <c r="D2">
+        <v>1843</v>
+      </c>
+      <c r="E2">
+        <v>7741.8</v>
+      </c>
+      <c r="F2">
+        <v>10332.4</v>
+      </c>
+      <c r="G2">
+        <v>7741.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20170630</v>
+      </c>
+      <c r="B3">
+        <v>910137</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43646</v>
+      </c>
+      <c r="D3">
+        <v>2910</v>
+      </c>
+      <c r="E3">
+        <v>12220</v>
+      </c>
+      <c r="F3">
+        <v>16296</v>
+      </c>
+      <c r="G3">
+        <v>12220</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
